--- a/specification/기능 명세서 작성.xlsx
+++ b/specification/기능 명세서 작성.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Multi 03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78115EF-E1CB-417A-9035-DE2560E2DBE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C73692-16B1-445F-B817-A762FCCEF652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="12060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
     <sheet name="IA(메뉴 트리)" sheetId="2" r:id="rId2"/>
     <sheet name="기능명세서" sheetId="3" r:id="rId3"/>
+    <sheet name="기능 정리" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="381">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -815,6 +816,3381 @@
   </si>
   <si>
     <t>QA-B-1-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseRegPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostListPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WritePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeaderContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeTableContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseFormContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseListContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PagenationContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containers 상세기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostListContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaginationContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostViewerContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentsListContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteCommentContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Responsive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditorContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteActionButtonsContainer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자 정보 가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어에서 user 객체를 가져와 Header 컴포넌트에 전달합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>툴팁 상태 관리 (tip)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useState로 특정 경로에 따른 툴팁 메시지를 설정합니다.
+현재 경로 (location.pathname)에 따라 해당 경로에 맞는 툴팁을 Header에 전달합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>네비게이션 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>viewAll, viewQna, viewAnnouncement, viewKnowledge, viewCommunity의 다섯 가지 네비게이션 메서드를 포함하며, 각 메서드는 navigate를 통해 특정 경로로 이동합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그아웃 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+logout 액션을 dispatch하여 사용자 로그아웃을 처리합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 페이지로 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+로그인 페이지로 이동하는 goLogin 메서드를 정의하여 로그인 페이지로 네비게이션합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장바구니 정보 가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어의 cart 객체를 가져옵니다.
+cart에는 사용자가 추가한 강의들이 포함되어 있으며, 각 강의에는 course_name과 class_time 정보가 포함됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기본 시간표 초기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+initialSchedule은 Mon부터 Sat까지 요일별로 빈 시간 배열을 정의하여 초기 시간표를 설정합니다.
+각 요일의 배열은 10개의 빈 문자열로 구성되어 있어, 수업이 없는 시간대를 나타냅니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클래스 시간을 객체로 변환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+classTime 문자열을 받아 요일별로 시간대를 나누어 객체로 변환합니다.
+요일 (예: Mon)과 시간 리스트를 추출하여, schedule에 적용할 수 있는 형태로 변환합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장바구니 강의 삭제 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+특정 강의를 cart에서 삭제하는 onDeleteCourseFromCart 메서드를 정의합니다.
+deleteCourse 액션을 dispatch하여 Redux 스토어의 cart 상태를 갱신합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시간표 업데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+cart가 변경될 때마다 useEffect가 실행되어 새로운 시간표를 생성합니다.
+initialSchedule을 깊은 복사하여 nextSchedule을 초기화하고, 각 강의의 class_time 정보를 기반으로 시간표에 강의명을 채웁니다.
+nextSchedule을 setSchedule을 통해 schedule 상태로 업데이트합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색 키워드 관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useState를 사용하여 검색어를 관리하며, onChange 함수에서 사용자가 입력한 검색어를 keyword 상태로 업데이트합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색 기준 설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useState를 통해 "교수명"과 "강의명" 중 어느 기준으로 검색할지를 설정합니다.
+handleToggle 함수를 통해 searchByCourse 값을 토글할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onSearch 함수는 사용자가 검색 버튼을 클릭하거나 Enter 키를 눌렀을 때 실행됩니다.
+dispatch(listCourses(...))를 호출하여 검색어와 현재 페이지 번호에 따라 강의를 불러옵니다.
+setSearchParams를 통해 페이지 번호를 1로 초기화합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장바구니 저장 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onSave 함수는 사용자가 로그인한 경우 장바구니에 담긴 강의 목록을 저장합니다.
+user 상태에서 user_id를 가져와 saveCart 액션을 호출하여 현재 사용자 장바구니를 서버에 저장합니다.
+사용자가 로그인하지 않은 경우 로그인 페이지로 리디렉션됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지 관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSearchParams를 사용하여 현재 페이지 번호를 가져오고, 페이지가 변경될 때마다 새로운 검색 결과를 불러옵니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>처음 렌더링 방지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useRef를 통해 컴포넌트가 처음 렌더링될 때 listCourses 액션이 호출되는 것을 방지합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장바구니 로드/언로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 로그인한 경우 장바구니를 로드하고, 로그아웃 시 장바구니를 언로드합니다.
+useEffect를 통해 사용자 정보가 변경될 때마다 로드/언로드 상태를 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 로그인되지 않은 상태에서 장바구니 저장을 시도할 경우, 로그인 페이지로 리디렉션합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>강의 목록 가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어의 courses 객체에서 courses 리스트를 가져옵니다.
+강의 목록은 CourseList 컴포넌트로 전달되어 화면에 표시됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오류 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector로 Redux 스토어의 courses 상태에서 오류 상태를 가져옵니다.
+오류가 발생한 경우 error 값을 CourseList로 전달하여 에러 메시지를 표시할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로딩 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux의 loading 상태를 useSelector로 가져와 강의 목록을 불러오는 동안 로딩 상태를 관리합니다.
+loading 값은 CourseList에 전달되어 로딩 스피너나 로딩 메시지를 표시할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>강의 추가 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onInsertCourse 함수는 특정 강의를 장바구니에 추가하는 기능을 담당합니다.
+insertCourse 액션을 dispatch하여 course 객체를 장바구니에 추가합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>강의 삭제 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onDeleteCourse 함수는 특정 강의를 장바구니에서 삭제하는 기능을 추가하려는 부분입니다.
+현재 dispatch 부분은 주석 처리되어 있어 실제로 삭제 기능은 작동하지 않지만, 향후 deleteCourse 액션을 사용하여 구현할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>강의 목록 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어의 courses 상태에서 courses 리스트를 가져옵니다.
+courses가 없거나 로딩 중일 경우 아무것도 렌더링하지 않고, 로딩이 완료되면 페이지네이션을 표시합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전체 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux의 courses 상태 전체를 all로 가져와 총 페이지 수를 추출합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로딩 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux의 loading 상태에서 courses/LIST_COURSES의 로딩 상태를 확인하여 강의 목록이 로딩 중인지 확인합니다.
+로딩 중일 경우 Pagination을 렌더링하지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+page: URL의 쿼리 파라미터에서 현재 페이지 번호를 가져옵니다. 페이지 번호가 없을 경우 기본값으로 1을 사용합니다.
+lastPage: 전체 강의 데이터를 참조하여 총 페이지 수를 설정합니다. all.courses.pagination.totalPages에서 값을 가져오며, 기본값은 1입니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pagination 컴포넌트와의 연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Pagination 컴포넌트에 page와 lastPage 값을 전달하여 페이지네이션 기능을 제공합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>흰색 박스(styled-components)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+box-shadow를 통해 가벼운 그림자를 추가하여 박스의 입체감을 줍니다.
+padding과 border-radius를 적용하여 콘텐츠의 여백과 모서리를 둥글게 처리합니다.
+.logo-area는 로고를 위한 영역으로, 가운데 정렬과 letter-spacing을 적용하여 로고 텍스트의 가독성을 높입니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전체 화면 레이아웃(styled-components)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+position: absolute로 설정하여 화면 전체를 덮습니다.
+배경 색상은 palette.gray[2]를 사용하여 회색 배경을 적용합니다.
+display: flex, flex-direction: column, justify-content: center, align-items: center 설정을 통해 중앙 정렬을 수행하여 콘텐츠가 화면 중앙에 위치하도록 합니다.
+.logo 클래스에 커스텀 폰트를 적용하여 로고에 스타일을 추가합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>children 속성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AuthTemplate는 children을 받아와 WhiteBox 내부에 렌더링합니다. 이를 통해 AuthTemplate을 감싸는 컴포넌트들이 이 안에 렌더링됩니다.
+children 속성을 활용하여 로그인 또는 회원가입 폼을 넣을 수 있도록 합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로고 링크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+.logo-area 내부에 Link 컴포넌트를 사용하여 로고 클릭 시 홈("/")으로 이동할 수 있게 합니다.
+KTC라는 텍스트를 로고로 사용하며, Orbitron 폰트와 굵은 스타일을 적용합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 성공 후 동작 (useEffect)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+user 상태가 설정되면 사용자를 홈 페이지(/)로 이동시킵니다.
+사용자 정보를 로컬 스토리지에 저장하여 새로고침 후에도 로그인 상태가 유지되도록 합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 오류 처리 및 인증 확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+authError가 발생하면 상태 코드에 따라 오류 메시지를 설정합니다.
+402 상태 코드: 비밀번호 오류 메시지
+401 상태 코드: 아이디 오류 메시지
+auth가 설정되면 dispatch(check())을 통해 사용자 정보를 확인합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 폼 초기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+컴포넌트가 처음 렌더링될 때 dispatch(initializeForm('login'))을 호출하여 로그인 폼 상태를 초기화합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 요청 핸들러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 로그인 폼을 제출할 때 호출됩니다.
+username과 password 필드에 빈 값이 있으면 오류 메시지를 설정하고 요청을 중단합니다.
+dispatch(login(...))을 통해 로그인 요청을 Redux 액션으로 보냅니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>폼 필드 변경 핸들러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 입력한 username 또는 password 값을 form 상태에 업데이트합니다.
+dispatch(changeField(...))를 통해 Redux의 login 폼 데이터를 갱신합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상태 및 스토어 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+form: Redux 스토어에서 로그인 폼 데이터를 가져옵니다 (state.auth.login).
+auth: 로그인 성공 여부를 나타내는 인증 상태 (state.auth.auth).
+authError: 로그인 시 발생할 수 있는 오류 상태 (state.auth.authError).
+user: 현재 로그인된 사용자 정보 (state.user.user).
+error: 로컬 상태로, 사용자 입력 오류나 인증 오류 메시지를 표시하는 데 사용됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 페이지 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+로그인 페이지(/login)로 이동하는 goLogin 함수를 정의하여, 로그인 버튼을 통해 호출됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지 이동 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onGoHome: 홈 페이지(/)로 이동하는 함수로, useCallback을 사용하여 메모이제이션 처리합니다.
+onGoCourse: 강의 페이지(/course)로 이동하는 함수로, useCallback을 사용하여 메모이제이션 처리합니다.
+두 함수는 navigate에 의존하므로, navigate가 변경될 때만 다시 생성됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그아웃 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+dispatch(logout())을 호출하여 Redux 스토어에서 사용자 로그아웃을 처리합니다.
+onLogout 함수는 Header 컴포넌트로 전달되어, 로그아웃 버튼을 통해 호출됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>네비게이션 함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+navigators 객체를 사용하여 각 페이지로 이동하는 함수들을 정의합니다.
+viewAll: 홈 페이지 (/)
+viewQna: QnA 페이지 (?subject=qna)
+viewAnnouncement: 공지 페이지 (?subject=announcement)
+viewKnowledge: 지식 페이지 (?subject=knowledge)
+viewCommunity: 커뮤니티 페이지 (?subject=community)
+각 함수는 navigate를 호출하여 페이지 이동을 처리합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>툴팁 설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useState를 사용하여 특정 경로에 따라 다른 툴팁 메시지를 설정합니다.
+tip 객체는 각 경로에 대한 툴팁 메시지를 저장하고, 현재 위치(location.pathname)에 따라 해당 메시지를 Header에 전달합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자 정보 가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어에서 현재 로그인된 user 정보를 가져옵니다.
+사용자 정보는 Header 컴포넌트에 전달되어 헤더에 표시됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 목록 요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+dispatch(listPosts({ username, page, subject }))를 통해 게시글 목록을 가져오는 액션을 실행합니다.
+username, page, subject, dispatch에 의존하여 이 값이 변경될 때마다 listPosts가 호출됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>작성 페이지 이동 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onGoWritePage 함수는 사용자가 게시글 작성 페이지로 이동하도록 합니다.
+initSubject(subject) 액션을 호출하여 현재 주제를 Redux 스토어에 초기화한 후, 작성 페이지 (/write)로 이동합니다.
+useCallback을 사용하여 메모이제이션을 적용하여 navigator, subject, dispatch가 변경될 때만 다시 생성됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지 정보 및 주제 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+page: URL의 쿼리 파라미터에서 현재 페이지 번호를 가져옵니다. 페이지 번호가 없으면 기본값으로 1을 사용합니다.
+subject: URL의 쿼리 파라미터에서 현재 게시글 주제를 가져옵니다. 주제 값이 없으면 빈 문자열을 사용하여 전체 게시글을 조회할 수 있도록 합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로딩 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux의 loading 상태에서 posts/LIST_POSTS의 로딩 상태를 가져옵니다.
+게시글 목록이 로딩 중일 경우 PostList에 loading 값을 전달하여 로딩 스피너나 로딩 메시지를 표시할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오류 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux 스토어의 posts.error 값을 가져와 게시글 목록을 불러오는 도중 발생한 오류 상태를 확인합니다.
+오류가 발생하면 PostList에 error 값을 전달하여 오류 메시지를 표시할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 목록 데이터 가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어의 posts 상태에서 게시글 목록 데이터를 가져옵니다.
+PostList에 전달하여 화면에 게시글 목록을 표시합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마지막 페이지 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+all.posts.pagination.totalPages에서 가져오며, 전체 게시글 데이터에서 추출한 총 페이지 수를 나타냅니다.
+기본값으로 1을 사용하여 페이지네이션이 최소 한 페이지는 표시되도록 합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자 이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useParams를 통해 URL 파라미터에서 username을 가져옵니다.
+특정 사용자의 게시글을 필터링할 때 활용됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지 및 주제 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+page: URL의 쿼리 파라미터에서 현재 페이지 번호를 가져오며, 페이지 번호가 없으면 기본값으로 1을 사용합니다.
+subject: URL의 쿼리 파라미터에서 게시글의 주제를 가져오며, 주제가 없으면 빈 문자열을 사용하여 전체 게시글을 조회할 수 있도록 합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로딩 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux의 loading 상태에서 posts/LIST_POSTS의 로딩 상태를 가져옵니다.
+로딩 중일 경우 Pagination을 렌더링하지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전체 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux의 posts 상태 전체를 all로 가져와 총 페이지 수를 추출합니다.
+총 페이지 수는 all.posts.pagination.totalPages에서 가져옵니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 목록 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어의 posts 상태에서 게시글 데이터를 가져옵니다.
+posts가 없거나 로딩 중일 경우 Pagination 컴포넌트를 렌더링하지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 페이지 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+로그인 페이지(/login)로 이동하는 goLogin 함수로, 로그인 버튼을 통해 호출됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>홈 및 코스 페이지 이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onGoHome: 홈 페이지(/)로 이동하며, useCallback으로 메모이제이션 되어 navigate가 변경될 때만 함수가 재생성됩니다.
+onGoCourse: 강의 페이지(/course)로 이동하며, useCallback으로 최적화되었습니다.
+두 함수는 Header 컴포넌트에 전달되어 페이지 이동 기능을 제공합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>네비게이션 함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+navigators 객체에 다섯 가지 네비게이션 함수를 정의하여 다양한 페이지로 이동할 수 있습니다.
+viewAll: 홈 페이지 (/)
+viewQna: Q&amp;A 페이지 (?subject=qna)
+viewAnnouncement: 공지사항 페이지 (?subject=announcement)
+viewKnowledge: 지식 페이지 (?subject=knowledge)
+viewCommunity: 커뮤니티 페이지 (?subject=community)
+각 함수는 navigate를 호출하여 페이지 이동을 처리하며, Header 컴포넌트에 전달됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>툴팁 설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useState를 사용하여 특정 경로에 따른 툴팁 메시지를 설정합니다.
+tip 객체는 각 경로에 대해 툴팁 메시지를 저장하며, 현재 위치(location.pathname)에 따라 해당 메시지를 Header에 전달하여 동적 툴팁을 표시합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자 정보 가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어에서 현재 로그인된 user 정보를 가져옵니다.
+사용자 정보는 Header 컴포넌트에 전달되어 사용자 상태에 따라 헤더에 로그인 또는 로그아웃 상태를 표시합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 불러오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useEffect를 사용하여 postId가 변경될 때마다 dispatch(readPost(postId))을 호출하여 게시글 데이터를 불러옵니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 삭제 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 게시글을 삭제할 수 있도록 onRemove 함수가 정의되어 있습니다.
+dispatch(removePost({ id: postId }))을 호출하여 Redux 스토어에서 게시글 삭제를 요청하고, 삭제 후 홈 페이지(/)로 이동합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 수정 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 게시글을 수정할 수 있도록 onEdit 함수가 정의되어 있습니다.
+dispatch(setOriginalPost(post))를 호출하여 현재 게시글 데이터를 Redux 스토어에 설정하고, 작성 페이지(/write)로 이동합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로딩 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux의 loading 상태에서 post/READ_POST의 로딩 상태를 가져옵니다.
+게시글 데이터를 불러오는 동안 로딩 스피너를 표시할 수 있도록 loading 값을 PostViewer에 전달합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오류 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector로 Redux 스토어의 post.error 값을 가져옵니다.
+오류가 발생한 경우 error 값을 PostViewer에 전달하여 오류 메시지를 표시할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어의 post 상태에서 현재 게시글 데이터를 가져옵니다.
+post는 PostViewer 컴포넌트에 전달되어 화면에 표시됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>댓글 목록 요청 및 상태 관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useEffect를 사용하여 postId나 page가 변경될 때마다 dispatch(listComments(...))를 호출하여 댓글 목록을 가져옵니다.
+페이지당 10개의 댓글을 불러오며, post_id와 page를 전달하여 해당 게시글의 댓글을 페이징 처리합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>댓글 삭제 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 댓글을 삭제할 수 있도록 onRemove 함수가 정의되어 있습니다.
+dispatch(removeComment(id))를 호출하여 댓글을 삭제하고, 삭제 후 해당 게시글의 첫 번째 페이지로 이동합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>댓글 수정 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 댓글을 수정할 수 있도록 onEdit 함수가 정의되어 있습니다.
+dispatch(updateComment(...))를 호출하여 댓글을 수정하고, 수정 후 해당 게시글의 첫 번째 페이지로 이동합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로딩 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux의 loading 상태에서 comments/LIST_COMMENTS의 로딩 상태를 가져옵니다.
+댓글 목록을 불러오는 동안 로딩 스피너를 표시할 수 있도록 loading 값을 CommentsList에 전달합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오류 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux 스토어의 comments.error 값을 가져와 댓글 목록을 불러오는 도중 발생한 오류 상태를 확인합니다.
+오류가 발생하면 error 값을 CommentsList에 전달하여 오류 메시지를 표시할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>댓글 목록 데이터 가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어의 comments 상태에서 댓글 목록 데이터를 가져옵니다.
+CommentsList에 전달하여 댓글 목록을 화면에 표시합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로딩 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Redux의 loading 상태에서 post/READ_POST의 로딩 상태를 가져옵니다.
+loading이 false일 때만 WriteComment 컴포넌트를 렌더링하여, 게시글이 로드되지 않은 상태에서는 댓글 작성란을 표시하지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>댓글 내용 변경 핸들러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onChange 함수는 댓글 작성란의 내용이 변경될 때 text 상태를 업데이트합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>댓글 작성 및 게시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onPublish 함수는 댓글을 Redux 액션 writeComment를 통해 게시합니다.
+댓글이 게시된 후 text를 초기화하고, 첫 번째 페이지로 리디렉션하여 댓글이 바로 반영된 게시글 화면을 보여줍니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 상태에 따른 댓글 작성란 상태 관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useEffect를 사용하여 user 상태가 변경될 때마다 text 상태를 업데이트합니다.
+로그인하지 않은 사용자는 "로그인 후 이용해주세요"라는 안내 메시지를 댓글 작성란에 표시하고, 로그인한 사용자는 빈 문자열로 초기화합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>댓글 작성 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useState를 사용하여 댓글 내용을 관리합니다.
+댓글 작성란에 입력된 값을 text에 저장하고, 댓글 작성이 완료되면 text 상태를 초기화합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인된 사용자 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어에서 현재 로그인된 user 정보를 가져옵니다.
+user가 없으면 댓글 작성이 불가능하며, 로그인 안내 메시지를 표시합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 상태 관리 및 로컬 스토리지 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+user가 설정되면 홈 화면으로 이동하고, 사용자 정보를 로컬 스토리지에 저장하여 로그인 상태를 유지합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입 성공 및 오류 처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+authError가 발생하면 오류 메시지를 설정합니다.
+authError.response.status가 409이면 "이미 존재하는 계정명입니다"라는 메시지를 설정합니다.
+auth가 설정되면 dispatch(check())를 호출하여 사용자 정보를 가져옵니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입 폼 초기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+컴포넌트가 처음 렌더링될 때 initializeForm('register')을 호출하여 회원가입 폼 상태를 초기화합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입 요청 핸들러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 폼을 제출할 때 호출됩니다.
+입력 필드 중 하나라도 비어 있으면 오류 메시지를 설정하고 요청을 중단합니다.
+password와 passwordConfirm이 일치하지 않으면 오류 메시지를 설정하고, 비밀번호 필드를 초기화합니다.
+위 조건을 통과하면 dispatch(register(...))를 호출하여 회원가입 요청을 보냅니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입 입력 필드 변경 핸들러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 입력한 username, password, passwordConfirm 값을 form에 업데이트합니다.
+dispatch(changeField(...))를 호출하여 Redux 상태를 업데이트합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로그인된 사용자 정보
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user: 로그인된 사용자 정보를 나타내며, 회원가입 성공 후 user가 설정됩니다.
+user가 설정되면 홈 화면으로 이동하고 사용자 정보를 로컬 스토리지에 저장하여 로그인 상태를 유지합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인증 상태 및 오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+auth: 회원가입 성공 여부를 나타내며, 회원가입이 성공하면 auth가 설정됩니다.
+authError: 회원가입 중 발생한 오류 상태를 나타내며, 서버에서 중복된 계정명이 있을 때 409 상태 코드로 오류를 반환합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입 폼 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어에서 회원가입 폼 데이터를 가져옵니다 (state.auth.register).
+form 객체는 username, password, passwordConfirm 필드를 포함하며, AuthForm에 전달됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>children 및 ...rest 속성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+children: Responsive 컴포넌트의 자식 요소로, 중앙 정렬과 반응형 너비를 적용하고자 하는 콘텐츠를 포함합니다.
+...rest: 추가적인 props를 ResponsiveBlock에 전달하여 style, className, onClick, onMouseMove 등의 다양한 속성을 사용할 수 있도록 합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>미디어 쿼리 사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+화면 크기에 따라 가로 너비가 변경되도록 @media를 사용합니다.
+@media (max-width: 1024px): 화면 너비가 1024px 이하일 때 너비를 768px로 줄입니다.
+@media (max-width: 768px): 화면 너비가 768px 이하일 때 너비를 100%로 설정하여, 화면 크기에 맞게 전체 너비를 차지하도록 합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기본 가로 너비 및 중앙 정렬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+padding-left와 padding-right를 각각 1rem으로 설정하여 좌우에 여백을 추가합니다.
+기본 너비는 1024px로 설정하고, margin: 0 auto를 통해 컴포넌트가 화면 중앙에 정렬되도록 합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>컴포넌트 언마운트 시 초기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useEffect에서 initialize 액션을 호출하여 컴포넌트가 언마운트될 때 Redux 상태를 초기화합니다.
+이렇게 함으로써, 사용자가 작성 페이지를 떠날 때 입력된 데이터가 초기화되어, 이후 새 글을 작성할 때 이전 작성 내용이 남아 있지 않도록 합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>필드 변경 핸들러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useCallback을 사용하여 changeField 액션을 dispatch하는 핸들러를 정의합니다.
+onChangeField 함수는 제목, 본문, 주제 등의 필드가 변경될 때 payload 데이터를 dispatch(changeField(payload))를 통해 Redux 상태를 업데이트합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유효성 검사 필드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+invalidField는 제목, 본문 등의 입력 필드의 유효성을 검사하여 유효하지 않은 필드가 있을 경우 오류를 표시할 수 있도록 합니다.
+유효성 검사에 따라 Editor 컴포넌트에 전달되어 유효하지 않은 필드에 대한 사용자 피드백을 제공합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 작성 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어의 write 상태에서 제목(title), 본문(body), 주제(subject) 데이터를 가져옵니다.
+각 데이터는 사용자가 입력한 게시글의 제목과 본문, 선택한 주제를 나타내며, Editor 컴포넌트에 전달되어 화면에 표시됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+useSelector를 사용하여 Redux 스토어에서 title, body, subject 등의 게시글 데이터를 가져옵니다.
+각 데이터는 사용자가 입력한 제목, 본문, 주제를 나타내며, onPublish 핸들러에서 게시글 등록 시 사용됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 상태 및 오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+post: 게시글 작성이 성공적으로 이루어지면, 작성된 게시글의 정보를 저장합니다.
+postError: 게시글 작성 도중 발생한 오류를 저장하며, 오류 발생 시 콘솔에 출력합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 유효성 검사 필드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제목, 본문, 주제 필드가 모두 유효한지 검사하고, 유효하지 않은 경우 setInvalidField 액션을 호출하여 해당 필드를 설정합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 등록 및 수정 핸들러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+onPublish는 게시글 등록 및 수정 기능을 담당합니다.
+title, body, subject 필드가 모두 유효한지 확인하고, 유효하지 않은 경우 유효하지 않은 필드명을 invalidField에 저장하여 오류를 표시합니다.
+originalPostId가 존재하면 updatePost 액션을 호출하여 기존 게시글을 수정하며, 그렇지 않은 경우 writePost 액션을 호출하여 새로운 게시글을 작성합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>취소 핸들러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+사용자가 게시글 작성을 취소할 수 있도록 navigator(-1)을 호출하여 이전 페이지로 이동합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게시글 작성 및 오류 처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+post 상태가 설정되면 작성된 게시글의 상세 페이지(/${username}/${id})로 이동합니다.
+postError 상태가 설정되면 콘솔에 오류를 출력합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+onGoHome, onGoCourse: useCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최적화된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>콜백을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블리싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front-end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back-end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복된 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복된 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미팅 일정 조율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BO-C-1-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 시간표 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 시간 객체로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 키워드 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 목록 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 오류 및 인증확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 목록 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 정보 및 주제 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 목록 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 삭제 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 목록 데이터 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 목록 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성 및 계시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 상태 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 폼 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당과 메뉴 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미팅 그룹 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미팅 그룹 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미팅 그룹 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미팅장 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미팅 권환 권리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +4198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,6 +4213,66 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -853,7 +4289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1178,13 +4614,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,15 +4878,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,25 +4887,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1596,11 +5286,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="1" bestFit="1" customWidth="1"/>
@@ -1616,7 +5306,7 @@
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13">
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,7 +5314,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1632,7 +5322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" ht="17.25" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +5360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="45" customHeight="1">
       <c r="B5" s="11">
         <v>1</v>
       </c>
@@ -1706,7 +5396,7 @@
       </c>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="45" customHeight="1">
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -1744,7 +5434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="45" customHeight="1">
       <c r="B7" s="16">
         <v>3</v>
       </c>
@@ -1780,7 +5470,7 @@
       </c>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="45" customHeight="1">
       <c r="B8" s="16">
         <v>4</v>
       </c>
@@ -1816,7 +5506,7 @@
       </c>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="45" customHeight="1">
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -1852,7 +5542,7 @@
       </c>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="45" customHeight="1">
       <c r="B10" s="16">
         <v>6</v>
       </c>
@@ -1888,7 +5578,7 @@
       </c>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="45" customHeight="1">
       <c r="B11" s="16">
         <v>7</v>
       </c>
@@ -1924,7 +5614,7 @@
       </c>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="45" customHeight="1">
       <c r="B12" s="16">
         <v>8</v>
       </c>
@@ -1962,7 +5652,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="45" customHeight="1">
       <c r="B13" s="16">
         <v>9</v>
       </c>
@@ -2000,7 +5690,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" ht="45" customHeight="1" thickBot="1">
       <c r="B14" s="24">
         <v>10</v>
       </c>
@@ -2038,7 +5728,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="45" customHeight="1">
       <c r="B15" s="11">
         <v>11</v>
       </c>
@@ -2074,7 +5764,7 @@
       </c>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="45" customHeight="1">
       <c r="B16" s="16">
         <v>12</v>
       </c>
@@ -2110,7 +5800,7 @@
       </c>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="45" customHeight="1">
       <c r="B17" s="16">
         <v>13</v>
       </c>
@@ -2146,8 +5836,8 @@
       </c>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="33">
+    <row r="18" spans="2:13" ht="45" customHeight="1" thickBot="1">
+      <c r="B18" s="30">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2165,7 +5855,7 @@
       <c r="G18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="31" t="s">
         <v>169</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -2180,7 +5870,7 @@
       <c r="L18" s="4">
         <v>2</v>
       </c>
-      <c r="M18" s="35"/>
+      <c r="M18" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2193,11 +5883,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="1" bestFit="1" customWidth="1"/>
@@ -2211,15 +5901,15 @@
     <col min="12" max="12" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13">
       <c r="C1" s="29"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="15.75" customHeight="1"/>
+    <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="40" t="s">
+    <row r="4" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2252,11 +5942,11 @@
       <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="33">
       <c r="B5" s="11">
         <v>1</v>
       </c>
@@ -2283,12 +5973,12 @@
       <c r="K5" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="55" t="s">
         <v>159</v>
       </c>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -2309,10 +5999,10 @@
       <c r="K6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="56"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="B7" s="16">
         <v>3</v>
       </c>
@@ -2333,10 +6023,10 @@
       <c r="K7" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="L7" s="30"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="B8" s="16">
         <v>4</v>
       </c>
@@ -2357,10 +6047,10 @@
       <c r="K8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -2381,10 +6071,10 @@
       <c r="K9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="L9" s="30"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="B10" s="16">
         <v>6</v>
       </c>
@@ -2405,10 +6095,10 @@
       <c r="K10" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L10" s="30"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="B11" s="16">
         <v>7</v>
       </c>
@@ -2429,10 +6119,10 @@
       <c r="K11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="L11" s="30"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13">
       <c r="B12" s="16">
         <v>8</v>
       </c>
@@ -2455,12 +6145,12 @@
       <c r="K12" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="56" t="s">
         <v>85</v>
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="B13" s="16">
         <v>9</v>
       </c>
@@ -2481,10 +6171,10 @@
       <c r="K13" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="L13" s="30"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" s="16">
         <v>10</v>
       </c>
@@ -2505,10 +6195,10 @@
       <c r="K14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L14" s="30"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" s="16">
         <v>11</v>
       </c>
@@ -2529,10 +6219,10 @@
       <c r="K15" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="L15" s="30"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13">
       <c r="B16" s="16">
         <v>12</v>
       </c>
@@ -2560,7 +6250,7 @@
       </c>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13">
       <c r="B17" s="16">
         <v>13</v>
       </c>
@@ -2583,12 +6273,12 @@
       <c r="K17" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="56" t="s">
         <v>160</v>
       </c>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13">
       <c r="B18" s="16">
         <v>14</v>
       </c>
@@ -2609,10 +6299,10 @@
       <c r="K18" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="30"/>
+      <c r="L18" s="56"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13">
       <c r="B19" s="16">
         <v>15</v>
       </c>
@@ -2633,10 +6323,10 @@
       <c r="K19" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="L19" s="30"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13">
       <c r="B20" s="16">
         <v>16</v>
       </c>
@@ -2657,12 +6347,12 @@
       <c r="K20" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="56" t="s">
         <v>161</v>
       </c>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13">
       <c r="B21" s="16">
         <v>17</v>
       </c>
@@ -2683,10 +6373,10 @@
       <c r="K21" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="L21" s="30"/>
+      <c r="L21" s="56"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13">
       <c r="B22" s="16">
         <v>18</v>
       </c>
@@ -2707,12 +6397,12 @@
       <c r="K22" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="56" t="s">
         <v>162</v>
       </c>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="17.25" thickBot="1">
       <c r="B23" s="20">
         <v>19</v>
       </c>
@@ -2733,10 +6423,10 @@
       <c r="K23" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="L23" s="39"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="23"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13">
       <c r="B24" s="11">
         <v>20</v>
       </c>
@@ -2761,12 +6451,12 @@
       <c r="K24" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="50" t="s">
         <v>164</v>
       </c>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13">
       <c r="B25" s="16">
         <v>21</v>
       </c>
@@ -2787,10 +6477,10 @@
       <c r="K25" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="L25" s="37"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13">
       <c r="B26" s="16">
         <v>22</v>
       </c>
@@ -2813,10 +6503,10 @@
       <c r="K26" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="L26" s="37"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13">
       <c r="B27" s="16">
         <v>23</v>
       </c>
@@ -2837,10 +6527,10 @@
       <c r="K27" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="L27" s="37"/>
+      <c r="L27" s="51"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13">
       <c r="B28" s="16">
         <v>24</v>
       </c>
@@ -2861,10 +6551,10 @@
       <c r="K28" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="37"/>
+      <c r="L28" s="51"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13">
       <c r="B29" s="16">
         <v>25</v>
       </c>
@@ -2885,10 +6575,10 @@
       <c r="K29" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L29" s="31"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13">
       <c r="B30" s="16">
         <v>26</v>
       </c>
@@ -2909,12 +6599,12 @@
       <c r="K30" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="53" t="s">
         <v>165</v>
       </c>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13">
       <c r="B31" s="16">
         <v>27</v>
       </c>
@@ -2935,10 +6625,10 @@
       <c r="K31" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="L31" s="37"/>
+      <c r="L31" s="51"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13">
       <c r="B32" s="16">
         <v>28</v>
       </c>
@@ -2959,10 +6649,10 @@
       <c r="K32" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="L32" s="37"/>
+      <c r="L32" s="51"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:13" ht="17.25" thickBot="1">
       <c r="B33" s="20">
         <v>29</v>
       </c>
@@ -2983,7 +6673,7 @@
       <c r="K33" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L33" s="38"/>
+      <c r="L33" s="54"/>
       <c r="M33" s="23"/>
     </row>
   </sheetData>
@@ -3003,217 +6693,1578 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:L33"/>
+  <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9" style="49"/>
+    <col min="12" max="12" width="7.125" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:16">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3">
+    <row r="3" spans="2:16">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="P3" s="58"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4">
+      <c r="C4" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="I4" s="68"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="49">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="I5" s="68"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="49">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6">
+      <c r="C6" s="69"/>
+      <c r="D6" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="I6" s="68"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="49">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="I7" s="68"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="49">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8">
+      <c r="C8" s="69"/>
+      <c r="D8" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="I8" s="68"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="49">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="C9" s="69"/>
+      <c r="D9" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="71" t="s">
+        <v>375</v>
+      </c>
+      <c r="I9" s="68"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="49">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10">
+      <c r="C10" s="69"/>
+      <c r="D10" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="68"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="49">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11">
+      <c r="C11" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="68"/>
+      <c r="H11" s="49" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="49">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="68"/>
+      <c r="H12" s="49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="49">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="68"/>
+      <c r="H13" s="49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="49">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="68"/>
+      <c r="H14" s="49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="49">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15">
+      <c r="C15" s="69"/>
+      <c r="D15" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="49">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16">
+      <c r="C16" s="69"/>
+      <c r="D16" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="68"/>
+      <c r="H16" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="49">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="H17" s="49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="49">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="F18" s="68"/>
+      <c r="H18" s="49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="49">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19">
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="68"/>
+      <c r="H19" s="49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="49">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20">
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="68"/>
+      <c r="H20" s="49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="49">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21">
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="68"/>
+      <c r="H21" s="49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="49">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22">
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="68"/>
+      <c r="H22" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="49">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23">
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="68"/>
+      <c r="H23" s="49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="49">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24">
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" s="68"/>
+      <c r="H24" s="49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="49">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25">
+      <c r="C25" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="F25" s="68"/>
+      <c r="H25" s="49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="49">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26">
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="68"/>
+      <c r="H26" s="49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="49">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27">
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="68"/>
+      <c r="H27" s="49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="49">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28">
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="68"/>
+      <c r="H28" s="49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="49">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29">
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="68"/>
+      <c r="H29" s="49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="49">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30">
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="68"/>
+      <c r="H30" s="49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="49">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31">
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="68"/>
+      <c r="H31" s="49" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="49">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32">
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="68"/>
+      <c r="H32" s="49" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="49">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33">
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="68"/>
+      <c r="H33" s="49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="49">
         <v>31</v>
       </c>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="68"/>
+      <c r="H34" s="49" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="49">
+        <v>32</v>
+      </c>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="68"/>
+      <c r="H35" s="49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="49">
+        <v>33</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="F36" s="68"/>
+      <c r="H36" s="49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="68"/>
+      <c r="H37" s="49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="68"/>
+      <c r="H38" s="49" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="68"/>
+      <c r="H39" s="49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="68"/>
+      <c r="H40" s="49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="49">
+        <v>34</v>
+      </c>
+      <c r="C41" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="68"/>
+      <c r="H41" s="49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="49">
+        <v>35</v>
+      </c>
+      <c r="C42" s="69"/>
+      <c r="D42" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="68"/>
+      <c r="H42" s="49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="C44" s="68"/>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="D25:D35"/>
+    <mergeCell ref="E25:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C25:C40"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="C11:C24"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D6D1CA-CD7D-4E23-938A-BC350CAE1E10}">
+  <dimension ref="B3:H116"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B4" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="2:7" ht="33">
+      <c r="B5" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="49.5">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="49.5">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="33">
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="33">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="33.75" thickBot="1">
+      <c r="B10" s="62"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="66">
+      <c r="B11" s="62"/>
+      <c r="C11" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="49.5">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="49.5">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="49.5">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="83.25" thickBot="1">
+      <c r="B15" s="62"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="49.5">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="49.5">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="66">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="66">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="49.5">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="33">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="49.5">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="33.75" thickBot="1">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="49.5">
+      <c r="B24" s="62"/>
+      <c r="C24" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="49.5">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="49.5">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="49.5">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="66.75" thickBot="1">
+      <c r="B28" s="62"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="66">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="33">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="66">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="82.5">
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="33.75" thickBot="1">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="99">
+      <c r="B34" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="82.5">
+      <c r="B35" s="60"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="66">
+      <c r="B36" s="60"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B37" s="60"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="99">
+      <c r="B38" s="60"/>
+      <c r="C38" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="49.5">
+      <c r="B39" s="60"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="66">
+      <c r="B40" s="60"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="49.5">
+      <c r="B41" s="60"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="82.5">
+      <c r="B42" s="60"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B43" s="61"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="49.5">
+      <c r="B44" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="66">
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="132">
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="49.5">
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="82.5">
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="33.75" thickBot="1">
+      <c r="B49" s="62"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="49.5">
+      <c r="B50" s="62"/>
+      <c r="C50" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="49.5">
+      <c r="B51" s="62"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="66">
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="82.5">
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="99">
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="50.25" thickBot="1">
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="49.5">
+      <c r="B56" s="62"/>
+      <c r="C56" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="49.5">
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="49.5">
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="82.5">
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="49.5">
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="66.75" thickBot="1">
+      <c r="B61" s="62"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="66">
+      <c r="B62" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="66">
+      <c r="B63" s="60"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="132">
+      <c r="B64" s="60"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="49.5">
+      <c r="B65" s="60"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="82.5">
+      <c r="B66" s="60"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="33.75" thickBot="1">
+      <c r="B67" s="60"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="49.5">
+      <c r="B68" s="60"/>
+      <c r="C68" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="49.5">
+      <c r="B69" s="60"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="49.5">
+      <c r="B70" s="60"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="66">
+      <c r="B71" s="60"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="66">
+      <c r="B72" s="60"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B73" s="60"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="49.5">
+      <c r="B74" s="60"/>
+      <c r="C74" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="49.5">
+      <c r="B75" s="60"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="49.5">
+      <c r="B76" s="60"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="66">
+      <c r="B77" s="60"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="66">
+      <c r="B78" s="60"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="66.75" thickBot="1">
+      <c r="B79" s="60"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="49.5">
+      <c r="B80" s="60"/>
+      <c r="C80" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="49.5">
+      <c r="B81" s="60"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="49.5">
+      <c r="B82" s="60"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="82.5">
+      <c r="B83" s="60"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="49.5">
+      <c r="B84" s="60"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="66.75" thickBot="1">
+      <c r="B85" s="60"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="49.5">
+      <c r="B86" s="60"/>
+      <c r="C86" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="49.5">
+      <c r="B87" s="60"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="66">
+      <c r="B88" s="60"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="66">
+      <c r="B89" s="60"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="33">
+      <c r="B90" s="60"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="66.75" thickBot="1">
+      <c r="B91" s="61"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="99">
+      <c r="B92" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="82.5">
+      <c r="B93" s="62"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="66">
+      <c r="B94" s="62"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B95" s="62"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="49.5">
+      <c r="B96" s="62"/>
+      <c r="C96" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="66">
+      <c r="B97" s="62"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="66">
+      <c r="B98" s="62"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="49.5">
+      <c r="B99" s="62"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="99">
+      <c r="B100" s="62"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="33">
+      <c r="B101" s="62"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="66">
+      <c r="B102" s="62"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B103" s="62"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="49.5">
+      <c r="B104" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="D104" s="46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="82.5">
+      <c r="B105" s="60"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="83.25" thickBot="1">
+      <c r="B106" s="60"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="82.5">
+      <c r="B107" s="60"/>
+      <c r="C107" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" s="44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="66">
+      <c r="B108" s="60"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="66">
+      <c r="B109" s="60"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="66.75" thickBot="1">
+      <c r="B110" s="60"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="66">
+      <c r="B111" s="60"/>
+      <c r="C111" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111" s="46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="49.5">
+      <c r="B112" s="60"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="49.5">
+      <c r="B113" s="60"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="99">
+      <c r="B114" s="60"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="33">
+      <c r="B115" s="60"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B116" s="61"/>
+      <c r="C116" s="65"/>
+      <c r="D116" s="43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="B5:B33"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="C111:C116"/>
+    <mergeCell ref="B104:B116"/>
+    <mergeCell ref="B92:B103"/>
+    <mergeCell ref="B62:B91"/>
+    <mergeCell ref="B44:B61"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="C44:C49"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/specification/기능 명세서 작성.xlsx
+++ b/specification/기능 명세서 작성.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Multi 03\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Multi 03\Documents\GitHub\koabackend\specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C73692-16B1-445F-B817-A762FCCEF652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2474C8A-370D-4CC2-8933-3AABB3C3E088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="12060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="450">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,18 +119,6 @@
   </si>
   <si>
     <t>기능 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3975,26 +3963,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퍼블리싱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>front-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>back-end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4192,6 +4160,262 @@
   <si>
     <t>미팅 권환 권리</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC-UA-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC-UA-002</t>
+  </si>
+  <si>
+    <t>FC-UA-003</t>
+  </si>
+  <si>
+    <t>FC-UA-004</t>
+  </si>
+  <si>
+    <t>FC-UA-005</t>
+  </si>
+  <si>
+    <t>FC-UA-006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC-BO-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC-BO-002</t>
+  </si>
+  <si>
+    <t>FC-BO-003</t>
+  </si>
+  <si>
+    <t>FC-BO-004</t>
+  </si>
+  <si>
+    <t>FC-BO-005</t>
+  </si>
+  <si>
+    <t>FC-BO-006</t>
+  </si>
+  <si>
+    <t>FC-BO-007</t>
+  </si>
+  <si>
+    <t>FC-BO-008</t>
+  </si>
+  <si>
+    <t>FC-BO-009</t>
+  </si>
+  <si>
+    <t>FC-BO-010</t>
+  </si>
+  <si>
+    <t>FC-BO-011</t>
+  </si>
+  <si>
+    <t>FC-BO-012</t>
+  </si>
+  <si>
+    <t>FC-BO-013</t>
+  </si>
+  <si>
+    <t>FC-BO-014</t>
+  </si>
+  <si>
+    <t>FC-TT-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC-TT-002</t>
+  </si>
+  <si>
+    <t>FC-TT-003</t>
+  </si>
+  <si>
+    <t>FC-TT-004</t>
+  </si>
+  <si>
+    <t>FC-TT-005</t>
+  </si>
+  <si>
+    <t>FC-TT-006</t>
+  </si>
+  <si>
+    <t>FC-TT-007</t>
+  </si>
+  <si>
+    <t>FC-TT-008</t>
+  </si>
+  <si>
+    <t>FC-TT-009</t>
+  </si>
+  <si>
+    <t>FC-TT-010</t>
+  </si>
+  <si>
+    <t>FC-TT-011</t>
+  </si>
+  <si>
+    <t>FC-TT-012</t>
+  </si>
+  <si>
+    <t>FC-TT-013</t>
+  </si>
+  <si>
+    <t>FC-TT-014</t>
+  </si>
+  <si>
+    <t>FC-TT-015</t>
+  </si>
+  <si>
+    <t>FC-TT-016</t>
+  </si>
+  <si>
+    <t>FC-FR-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC-FR-002</t>
+  </si>
+  <si>
+    <t>게시글 상세 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redux 스토어에서 user 객체를 가져와 Header 컴포넌트에 전달합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 경로에 따른 유저 데이터를 수정하거나 관리합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout 액션을 dispatch하여 사용자 세션을 종료합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 실패 시 오류 메시지를 반환하고 로그 기록을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 회원가입 데이터를 서버로 전달하며, 유효성 검사 후 저장합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복된 ID 또는 비밀번호 입력 시 오류 메시지를 반환합니다.</t>
+  </si>
+  <si>
+    <t>Redux 스토어에서 게시물 데이터를 가져와 화면에 표시합니다.</t>
+  </si>
+  <si>
+    <t>현재 페이지 번호와 주제를 저장하여 필터링된 데이터를 관리합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 게시물 목록 데이터를 요청하여 페이징된 결과를 반환합니다.</t>
+  </si>
+  <si>
+    <t>작성 페이지로 이동하며, 초기 데이터가 필요한 경우 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에서 특정 게시물 데이터를 가져와 화면에 표시합니다.</t>
+  </si>
+  <si>
+    <t>사용자가 작성한 데이터를 서버로 전송하여 게시글을 저장합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 게시물을 삭제하고 성공 여부를 반환합니다.</t>
+  </si>
+  <si>
+    <t>기존 게시글 데이터를 수정하며, 업데이트된 데이터를 저장합니다.</t>
+  </si>
+  <si>
+    <t>특정 게시글의 댓글 데이터를 서버에서 가져옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 요청을 보내 댓글 목록 데이터를 가져옵니다.</t>
+  </si>
+  <si>
+    <t>사용자가 입력한 댓글을 서버로 전송하여 저장합니다.</t>
+  </si>
+  <si>
+    <t>댓글이 수정 또는 삭제되었는지 확인하여 UI를 업데이트합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 댓글을 수정하고 저장합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 댓글을 삭제하며 성공 시 해당 댓글을 화면에서 제거합니다.</t>
+  </si>
+  <si>
+    <t>Redux 스토어에서 장바구니 데이터를 가져옵니다.</t>
+  </si>
+  <si>
+    <t>빈 상태의 초기 시간표 데이터를 설정합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 형태의 시간을 객체 형태로 변환하여 처리합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 시간표 데이터를 삭제하며 성공 여부를 반환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 데이터가 변경될 때마다 시간표를 동적으로 갱신합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 검색어를 관리하며 검색 조건을 업데이트합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 검색어와 조건에 따라 데이터를 검색합니다.</t>
+  </si>
+  <si>
+    <t>선택한 장바구니 데이터를 서버에 저장합니다.</t>
+  </si>
+  <si>
+    <t>서버에서 모든 강의 데이터를 가져와 화면에 표시합니다.</t>
+  </si>
+  <si>
+    <t>선택된 강의를 장바구니에 추가하며 성공 여부를 반환합니다.</t>
+  </si>
+  <si>
+    <t>선택된 강의를 장바구니에서 삭제하고 화면을 갱신합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 미팅 그룹을 생성하며, 생성된 데이터를 서버에 저장합니다.</t>
+  </si>
+  <si>
+    <t>기존 미팅 그룹 정보를 수정하고 업데이트된 데이터를 반환합니다.</t>
+  </si>
+  <si>
+    <t>선택된 미팅 그룹을 삭제하고 삭제 성공 여부를 반환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미팅 그룹에서 사용자 권한을 설정하고 권한 데이터를 관리합니다.</t>
+  </si>
+  <si>
+    <t>권한 상태를 확인하여 사용 가능 여부를 반환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 음식 데이터를 저장하고 분석합니다.</t>
+  </si>
+  <si>
+    <t>사용자 선호도 기반으로 식당과 메뉴를 추천하여 반환합니다.</t>
   </si>
 </sst>
 </file>
@@ -4289,7 +4513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -4781,13 +5005,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4938,6 +5234,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4962,7 +5267,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4974,35 +5294,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5286,8 +5696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5308,18 +5718,18 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickBot="1">
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="17.25" thickBot="1">
@@ -5336,7 +5746,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>4</v>
@@ -5365,31 +5775,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L5" s="12">
         <v>9</v>
@@ -5401,37 +5811,37 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="L6" s="8">
         <v>1</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="45" customHeight="1">
@@ -5439,31 +5849,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L7" s="8">
         <v>7</v>
@@ -5475,31 +5885,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L8" s="8">
         <v>3</v>
@@ -5511,31 +5921,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="K9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L9" s="8">
         <v>3</v>
@@ -5547,31 +5957,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="L10" s="8">
         <v>6</v>
@@ -5583,31 +5993,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L11" s="8">
         <v>6</v>
@@ -5619,37 +6029,37 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="L12" s="8">
         <v>1</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="45" customHeight="1">
@@ -5657,37 +6067,37 @@
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="K13" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L13" s="8">
         <v>1</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="45" customHeight="1" thickBot="1">
@@ -5695,37 +6105,37 @@
         <v>10</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L14" s="25">
         <v>1</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="45" customHeight="1">
@@ -5733,31 +6143,31 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L15" s="12">
         <v>7</v>
@@ -5769,31 +6179,31 @@
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L16" s="8">
         <v>9</v>
@@ -5805,31 +6215,31 @@
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L17" s="8">
         <v>4</v>
@@ -5841,31 +6251,31 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="K18" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L18" s="4">
         <v>2</v>
@@ -5883,8 +6293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5913,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -5943,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="33">
@@ -5951,30 +6361,30 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>156</v>
       </c>
       <c r="M5" s="15"/>
     </row>
@@ -5984,22 +6394,22 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6" s="56"/>
+        <v>128</v>
+      </c>
+      <c r="L6" s="59"/>
       <c r="M6" s="18"/>
     </row>
     <row r="7" spans="2:13">
@@ -6008,22 +6418,22 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="56"/>
+        <v>129</v>
+      </c>
+      <c r="L7" s="59"/>
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="2:13">
@@ -6032,22 +6442,22 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="56"/>
+        <v>130</v>
+      </c>
+      <c r="L8" s="59"/>
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="2:13">
@@ -6056,22 +6466,22 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9" s="56"/>
+        <v>131</v>
+      </c>
+      <c r="L9" s="59"/>
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="2:13">
@@ -6080,22 +6490,22 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="L10" s="56"/>
+        <v>132</v>
+      </c>
+      <c r="L10" s="59"/>
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="2:13">
@@ -6104,22 +6514,22 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" s="56"/>
+        <v>128</v>
+      </c>
+      <c r="L11" s="59"/>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="2:13">
@@ -6128,25 +6538,25 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>85</v>
+        <v>133</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>82</v>
       </c>
       <c r="M12" s="18"/>
     </row>
@@ -6156,22 +6566,22 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="56"/>
+        <v>134</v>
+      </c>
+      <c r="L13" s="59"/>
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="2:13">
@@ -6180,22 +6590,22 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" s="56"/>
+        <v>135</v>
+      </c>
+      <c r="L14" s="59"/>
       <c r="M14" s="18"/>
     </row>
     <row r="15" spans="2:13">
@@ -6204,22 +6614,22 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" s="56"/>
+        <v>136</v>
+      </c>
+      <c r="L15" s="59"/>
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="2:13">
@@ -6228,25 +6638,25 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M16" s="18"/>
     </row>
@@ -6256,25 +6666,25 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>160</v>
+        <v>138</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>157</v>
       </c>
       <c r="M17" s="18"/>
     </row>
@@ -6284,22 +6694,22 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="56"/>
+        <v>139</v>
+      </c>
+      <c r="L18" s="59"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="2:13">
@@ -6308,22 +6718,22 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="56"/>
+        <v>140</v>
+      </c>
+      <c r="L19" s="59"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13">
@@ -6332,23 +6742,23 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="56" t="s">
-        <v>161</v>
+        <v>141</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>158</v>
       </c>
       <c r="M20" s="18"/>
     </row>
@@ -6358,22 +6768,22 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="56"/>
+        <v>142</v>
+      </c>
+      <c r="L21" s="59"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="2:13">
@@ -6382,23 +6792,23 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="56" t="s">
-        <v>162</v>
+        <v>143</v>
+      </c>
+      <c r="L22" s="59" t="s">
+        <v>159</v>
       </c>
       <c r="M22" s="18"/>
     </row>
@@ -6408,22 +6818,22 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="L23" s="57"/>
+        <v>144</v>
+      </c>
+      <c r="L23" s="60"/>
       <c r="M23" s="23"/>
     </row>
     <row r="24" spans="2:13">
@@ -6431,28 +6841,28 @@
         <v>20</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="50" t="s">
         <v>164</v>
+      </c>
+      <c r="L24" s="53" t="s">
+        <v>161</v>
       </c>
       <c r="M24" s="15"/>
     </row>
@@ -6462,22 +6872,22 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="51"/>
+        <v>146</v>
+      </c>
+      <c r="L25" s="54"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13">
@@ -6486,24 +6896,24 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="51"/>
+        <v>147</v>
+      </c>
+      <c r="L26" s="54"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="2:13">
@@ -6512,22 +6922,22 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L27" s="51"/>
+        <v>148</v>
+      </c>
+      <c r="L27" s="54"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13">
@@ -6536,22 +6946,22 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="L28" s="51"/>
+        <v>145</v>
+      </c>
+      <c r="L28" s="54"/>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="2:13">
@@ -6560,22 +6970,22 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="L29" s="52"/>
+        <v>149</v>
+      </c>
+      <c r="L29" s="55"/>
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="2:13">
@@ -6584,23 +6994,23 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L30" s="53" t="s">
-        <v>165</v>
+        <v>151</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>162</v>
       </c>
       <c r="M30" s="18"/>
     </row>
@@ -6610,22 +7020,22 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="L31" s="51"/>
+        <v>150</v>
+      </c>
+      <c r="L31" s="54"/>
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="2:13">
@@ -6634,22 +7044,22 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L32" s="51"/>
+        <v>152</v>
+      </c>
+      <c r="L32" s="54"/>
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="2:13" ht="17.25" thickBot="1">
@@ -6658,22 +7068,22 @@
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="L33" s="54"/>
+        <v>153</v>
+      </c>
+      <c r="L33" s="57"/>
       <c r="M33" s="23"/>
     </row>
   </sheetData>
@@ -6693,10 +7103,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:P44"/>
+  <dimension ref="B1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6707,637 +7117,836 @@
     <col min="4" max="4" width="11.75" style="49" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="49" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.875" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="49"/>
-    <col min="12" max="12" width="7.125" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="49"/>
+    <col min="7" max="7" width="24.125" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="76.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
-      <c r="B2" s="58" t="s">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="104"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="79">
+        <v>1</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>412</v>
+      </c>
+      <c r="I4" s="90"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="80">
+        <v>2</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="I5" s="91"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="80">
+        <v>3</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="80">
+        <v>4</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="80">
+        <v>5</v>
+      </c>
+      <c r="C8" s="84"/>
+      <c r="D8" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="H8" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="80">
+        <v>6</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>367</v>
+      </c>
+      <c r="H9" s="107" t="s">
+        <v>417</v>
+      </c>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B10" s="81">
+        <v>7</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="92"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="79">
+        <v>8</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="105" t="s">
+        <v>418</v>
+      </c>
+      <c r="I11" s="90"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="80">
+        <v>9</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="H12" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="80">
+        <v>10</v>
+      </c>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="80">
+        <v>11</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="H14" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="80">
+        <v>12</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="H15" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="80">
+        <v>13</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="H16" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="80">
+        <v>14</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="H17" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="I17" s="91"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="80">
+        <v>15</v>
+      </c>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="87" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="H18" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="I18" s="91"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="80">
+        <v>16</v>
+      </c>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="H19" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="I19" s="91"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="80">
+        <v>17</v>
+      </c>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="H20" s="106" t="s">
+        <v>427</v>
+      </c>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="80">
+        <v>18</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="89" t="s">
+        <v>333</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>428</v>
+      </c>
+      <c r="I21" s="91"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="80">
+        <v>19</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="H22" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="80">
+        <v>20</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" s="106" t="s">
+        <v>430</v>
+      </c>
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B24" s="81">
+        <v>21</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="88" t="s">
+        <v>336</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" s="109" t="s">
+        <v>431</v>
+      </c>
+      <c r="I24" s="92"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="79">
+        <v>22</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H25" s="105" t="s">
+        <v>432</v>
+      </c>
+      <c r="I25" s="90"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="80">
         <v>23</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="H26" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="I26" s="91"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="80">
         <v>24</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="H27" s="106" t="s">
+        <v>434</v>
+      </c>
+      <c r="I27" s="91"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="80">
         <v>25</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="M3" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="N3" s="49" t="s">
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="H28" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="I28" s="91"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="80">
+        <v>26</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="H29" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="I29" s="91"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="80">
+        <v>27</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="H30" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="I30" s="91"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="80">
+        <v>28</v>
+      </c>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="H31" s="106" t="s">
+        <v>438</v>
+      </c>
+      <c r="I31" s="91"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="80">
+        <v>29</v>
+      </c>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="H32" s="106" t="s">
+        <v>439</v>
+      </c>
+      <c r="I32" s="91"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="80">
+        <v>30</v>
+      </c>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="H33" s="106" t="s">
+        <v>440</v>
+      </c>
+      <c r="I33" s="91"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="80">
+        <v>31</v>
+      </c>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="H34" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="I34" s="91"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="80">
+        <v>32</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="H35" s="106" t="s">
+        <v>442</v>
+      </c>
+      <c r="I35" s="91"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="80">
+        <v>33</v>
+      </c>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="86" t="s">
         <v>329</v>
       </c>
-      <c r="O3" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="P3" s="58"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="49">
-        <v>1</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="I4" s="68"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="49">
-        <v>2</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="I5" s="68"/>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="49">
-        <v>3</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>332</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68" t="s">
-        <v>348</v>
-      </c>
-      <c r="I6" s="68"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="49">
-        <v>4</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="70" t="s">
-        <v>360</v>
-      </c>
-      <c r="I7" s="68"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="49">
-        <v>5</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="68" t="s">
-        <v>333</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="70" t="s">
+      <c r="F36" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="H36" s="106" t="s">
+        <v>443</v>
+      </c>
+      <c r="I36" s="91"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="80">
+        <v>34</v>
+      </c>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="H37" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="I37" s="91"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="80">
+        <v>35</v>
+      </c>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="H38" s="106" t="s">
+        <v>445</v>
+      </c>
+      <c r="I38" s="91"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="80">
+        <v>36</v>
+      </c>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="H39" s="106" t="s">
+        <v>447</v>
+      </c>
+      <c r="I39" s="91"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B40" s="81">
+        <v>37</v>
+      </c>
+      <c r="C40" s="83"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="G40" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="I8" s="68"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="49">
-        <v>6</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>334</v>
-      </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="71" t="s">
-        <v>375</v>
-      </c>
-      <c r="I9" s="68"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="49">
-        <v>7</v>
-      </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>335</v>
-      </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="68"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="49">
-        <v>8</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="68"/>
-      <c r="H11" s="49" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="49">
-        <v>9</v>
-      </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="68"/>
-      <c r="H12" s="49" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="49">
-        <v>10</v>
-      </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="68"/>
-      <c r="H13" s="49" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="49">
-        <v>11</v>
-      </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="68"/>
-      <c r="H14" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="49">
-        <v>12</v>
-      </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="68" t="s">
+      <c r="H40" s="109" t="s">
+        <v>446</v>
+      </c>
+      <c r="I40" s="92"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="79">
+        <v>38</v>
+      </c>
+      <c r="C41" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="H41" s="105" t="s">
+        <v>448</v>
+      </c>
+      <c r="I41" s="90"/>
+    </row>
+    <row r="42" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B42" s="81">
+        <v>39</v>
+      </c>
+      <c r="C42" s="83"/>
+      <c r="D42" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="68"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="49">
-        <v>13</v>
-      </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="68"/>
-      <c r="H16" s="49" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="49">
-        <v>14</v>
-      </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69" t="s">
-        <v>345</v>
-      </c>
-      <c r="E17" s="70" t="s">
-        <v>339</v>
-      </c>
-      <c r="F17" s="68"/>
-      <c r="H17" s="49" t="s">
+      <c r="F42" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="G42" s="51" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="49">
-        <v>15</v>
-      </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="F18" s="68"/>
-      <c r="H18" s="49" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="49">
-        <v>16</v>
-      </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="71" t="s">
-        <v>338</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="H19" s="49" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="49">
-        <v>17</v>
-      </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="68"/>
-      <c r="H20" s="49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="49">
-        <v>18</v>
-      </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="71" t="s">
-        <v>341</v>
-      </c>
-      <c r="F21" s="68"/>
-      <c r="H21" s="49" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="49">
-        <v>19</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="68"/>
-      <c r="H22" s="49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="49">
-        <v>20</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="F23" s="68"/>
-      <c r="H23" s="49" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="49">
-        <v>21</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="F24" s="68"/>
-      <c r="H24" s="49" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="49">
-        <v>22</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="69" t="s">
-        <v>336</v>
-      </c>
-      <c r="F25" s="68"/>
-      <c r="H25" s="49" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="49">
-        <v>23</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="68"/>
-      <c r="H26" s="49" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="49">
-        <v>24</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="68"/>
-      <c r="H27" s="49" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="49">
-        <v>25</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="68"/>
-      <c r="H28" s="49" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="49">
-        <v>26</v>
-      </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="68"/>
-      <c r="H29" s="49" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="49">
-        <v>27</v>
-      </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="68"/>
-      <c r="H30" s="49" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="49">
-        <v>28</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="68"/>
-      <c r="H31" s="49" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="49">
-        <v>29</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="68"/>
-      <c r="H32" s="49" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="49">
-        <v>30</v>
-      </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="68"/>
-      <c r="H33" s="49" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="49">
-        <v>31</v>
-      </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="68"/>
-      <c r="H34" s="49" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="49">
-        <v>32</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="68"/>
-      <c r="H35" s="49" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="49">
-        <v>33</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="F36" s="68"/>
-      <c r="H36" s="49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="68"/>
-      <c r="H37" s="49" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="68"/>
-      <c r="H38" s="49" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="68"/>
-      <c r="H39" s="49" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="68"/>
-      <c r="H40" s="49" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="49">
-        <v>34</v>
-      </c>
-      <c r="C41" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="68"/>
-      <c r="H41" s="49" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="49">
-        <v>35</v>
-      </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="68"/>
-      <c r="H42" s="49" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="C44" s="68"/>
+      <c r="H42" s="109" t="s">
+        <v>449</v>
+      </c>
+      <c r="I42" s="92"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="C44" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D25:D35"/>
-    <mergeCell ref="E25:E35"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="C25:C40"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D17:D24"/>
+  <mergeCells count="28">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="C11:C24"/>
-    <mergeCell ref="H9:H10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="D11:D14"/>
@@ -7345,18 +7954,16 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="D25:D35"/>
+    <mergeCell ref="E25:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="C25:C40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7368,8 +7975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D6D1CA-CD7D-4E23-938A-BC350CAE1E10}">
   <dimension ref="B3:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7383,869 +7990,859 @@
     <row r="3" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:7" ht="17.25" thickBot="1">
       <c r="B4" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:7" ht="33">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="49.5">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="49.5">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="33">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="33">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="33.75" thickBot="1">
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="66">
+      <c r="B11" s="65"/>
+      <c r="C11" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="49.5">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="49.5">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="49.5">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="83.25" thickBot="1">
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="49.5">
+      <c r="B16" s="65"/>
+      <c r="C16" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="49.5">
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="66">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="66">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="49.5">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="33">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="49.5">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="33.75" thickBot="1">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="49.5">
+      <c r="B24" s="65"/>
+      <c r="C24" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="49.5">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="49.5">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="49.5">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="66.75" thickBot="1">
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="66">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="33">
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="66">
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="82.5">
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="33.75" thickBot="1">
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="99">
+      <c r="B34" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="82.5">
+      <c r="B35" s="68"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="66">
+      <c r="B36" s="68"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B37" s="68"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="99">
+      <c r="B38" s="68"/>
+      <c r="C38" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="49.5">
+      <c r="B39" s="68"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="66">
+      <c r="B40" s="68"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="49.5">
+      <c r="B41" s="68"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="82.5">
+      <c r="B42" s="68"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B43" s="69"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="49.5">
+      <c r="B44" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="66">
+      <c r="B45" s="65"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="132">
+      <c r="B46" s="65"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="49.5">
+      <c r="B47" s="65"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="82.5">
+      <c r="B48" s="65"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="33.75" thickBot="1">
+      <c r="B49" s="65"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="49.5">
+      <c r="B50" s="65"/>
+      <c r="C50" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="49.5">
+      <c r="B51" s="65"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="66">
+      <c r="B52" s="65"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="82.5">
+      <c r="B53" s="65"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="99">
+      <c r="B54" s="65"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="50.25" thickBot="1">
+      <c r="B55" s="65"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="49.5">
+      <c r="B56" s="65"/>
+      <c r="C56" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="49.5">
+      <c r="B57" s="65"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="49.5">
+      <c r="B58" s="65"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="82.5">
+      <c r="B59" s="65"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="49.5">
+      <c r="B60" s="65"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="66.75" thickBot="1">
+      <c r="B61" s="65"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="66">
+      <c r="B62" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="49.5">
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="49.5">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="41" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="33">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="33">
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="48" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="33.75" thickBot="1">
-      <c r="B10" s="62"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="45" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="66">
-      <c r="B11" s="62"/>
-      <c r="C11" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="49.5">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="49.5">
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="42" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="49.5">
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="42" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="83.25" thickBot="1">
-      <c r="B15" s="62"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="49.5">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="49.5">
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="42" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="66">
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="42" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="66">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="42" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="49.5">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="42" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="33">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="42" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="49.5">
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="42" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="33.75" thickBot="1">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="47" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="49.5">
-      <c r="B24" s="62"/>
-      <c r="C24" s="66" t="s">
+      <c r="C62" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="H62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="66">
+      <c r="B63" s="68"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="132">
+      <c r="B64" s="68"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="49.5">
+      <c r="B65" s="68"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="82.5">
+      <c r="B66" s="68"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="33.75" thickBot="1">
+      <c r="B67" s="68"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="49.5">
+      <c r="B68" s="68"/>
+      <c r="C68" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="49.5">
+      <c r="B69" s="68"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="49.5">
+      <c r="B70" s="68"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="66">
+      <c r="B71" s="68"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="66">
+      <c r="B72" s="68"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B73" s="68"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="49.5">
+      <c r="B74" s="68"/>
+      <c r="C74" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="49.5">
+      <c r="B75" s="68"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="49.5">
+      <c r="B76" s="68"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="66">
+      <c r="B77" s="68"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="66">
+      <c r="B78" s="68"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="66.75" thickBot="1">
+      <c r="B79" s="68"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="49.5">
+      <c r="B80" s="68"/>
+      <c r="C80" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="49.5">
+      <c r="B81" s="68"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="49.5">
+      <c r="B82" s="68"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="82.5">
+      <c r="B83" s="68"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="49.5">
+      <c r="B84" s="68"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="66.75" thickBot="1">
+      <c r="B85" s="68"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="49.5">
+      <c r="B86" s="68"/>
+      <c r="C86" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="D86" s="44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="49.5">
+      <c r="B87" s="68"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="66">
+      <c r="B88" s="68"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="66">
+      <c r="B89" s="68"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="33">
+      <c r="B90" s="68"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="66.75" thickBot="1">
+      <c r="B91" s="69"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="99">
+      <c r="B92" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D24" s="46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="49.5">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="49.5">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="49.5">
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="66.75" thickBot="1">
-      <c r="B28" s="62"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="66">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="33">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="42" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="66">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="42" t="s">
+      <c r="D92" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="82.5">
+      <c r="B93" s="65"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="42" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="82.5">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="33.75" thickBot="1">
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="47" t="s">
+    <row r="94" spans="2:4" ht="66">
+      <c r="B94" s="65"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="42" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="99">
-      <c r="B34" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="82.5">
-      <c r="B35" s="60"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="42" t="s">
+    <row r="95" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B95" s="65"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="43" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="66">
-      <c r="B36" s="60"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="50.25" thickBot="1">
-      <c r="B37" s="60"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="99">
-      <c r="B38" s="60"/>
-      <c r="C38" s="63" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="49.5">
-      <c r="B39" s="60"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="66">
-      <c r="B40" s="60"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="42" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="49.5">
-      <c r="B41" s="60"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="42" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="82.5">
-      <c r="B42" s="60"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="42" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="50.25" thickBot="1">
-      <c r="B43" s="61"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="47" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="49.5">
-      <c r="B44" s="62" t="s">
+    <row r="96" spans="2:4" ht="49.5">
+      <c r="B96" s="65"/>
+      <c r="C96" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="66">
+      <c r="B97" s="65"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="66">
+      <c r="B98" s="65"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="49.5">
+      <c r="B99" s="65"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="99">
+      <c r="B100" s="65"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="33">
+      <c r="B101" s="65"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="66">
+      <c r="B102" s="65"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B103" s="65"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="49.5">
+      <c r="B104" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="66">
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="42" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="132">
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="42" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="49.5">
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="42" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="82.5">
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="42" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="33.75" thickBot="1">
-      <c r="B49" s="62"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="49.5">
-      <c r="B50" s="62"/>
-      <c r="C50" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="49.5">
-      <c r="B51" s="62"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="42" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="66">
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="42" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="82.5">
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="42" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="99">
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="42" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="50.25" thickBot="1">
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="47" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="49.5">
-      <c r="B56" s="62"/>
-      <c r="C56" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="49.5">
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="49.5">
-      <c r="B58" s="62"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="42" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="82.5">
-      <c r="B59" s="62"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="42" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="49.5">
-      <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="42" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="66.75" thickBot="1">
-      <c r="B61" s="62"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="43" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="66">
-      <c r="B62" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="H62" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="66">
-      <c r="B63" s="60"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="132">
-      <c r="B64" s="60"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="42" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="49.5">
-      <c r="B65" s="60"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="42" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="82.5">
-      <c r="B66" s="60"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="42" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="33.75" thickBot="1">
-      <c r="B67" s="60"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="47" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="49.5">
-      <c r="B68" s="60"/>
-      <c r="C68" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="D68" s="46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="49.5">
-      <c r="B69" s="60"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="42" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="49.5">
-      <c r="B70" s="60"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="42" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="66">
-      <c r="B71" s="60"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="42" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="66">
-      <c r="B72" s="60"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="42" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" ht="50.25" thickBot="1">
-      <c r="B73" s="60"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" ht="49.5">
-      <c r="B74" s="60"/>
-      <c r="C74" s="63" t="s">
+      <c r="C104" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" ht="49.5">
-      <c r="B75" s="60"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="42" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" ht="49.5">
-      <c r="B76" s="60"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="42" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" ht="66">
-      <c r="B77" s="60"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="42" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" ht="66">
-      <c r="B78" s="60"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" ht="66.75" thickBot="1">
-      <c r="B79" s="60"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" ht="49.5">
-      <c r="B80" s="60"/>
-      <c r="C80" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="D80" s="46" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" ht="49.5">
-      <c r="B81" s="60"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="49.5">
-      <c r="B82" s="60"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="42" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" ht="82.5">
-      <c r="B83" s="60"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="42" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" ht="49.5">
-      <c r="B84" s="60"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="42" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" ht="66.75" thickBot="1">
-      <c r="B85" s="60"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="43" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" ht="49.5">
-      <c r="B86" s="60"/>
-      <c r="C86" s="63" t="s">
+      <c r="D104" s="46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="82.5">
+      <c r="B105" s="68"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="83.25" thickBot="1">
+      <c r="B106" s="68"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="82.5">
+      <c r="B107" s="68"/>
+      <c r="C107" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="D86" s="44" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" ht="49.5">
-      <c r="B87" s="60"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="42" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" ht="66">
-      <c r="B88" s="60"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="42" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" ht="66">
-      <c r="B89" s="60"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="42" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" ht="33">
-      <c r="B90" s="60"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="42" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" ht="66.75" thickBot="1">
-      <c r="B91" s="61"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="47" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" ht="99">
-      <c r="B92" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="C92" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" ht="82.5">
-      <c r="B93" s="62"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" ht="66">
-      <c r="B94" s="62"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" ht="50.25" thickBot="1">
-      <c r="B95" s="62"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" ht="49.5">
-      <c r="B96" s="62"/>
-      <c r="C96" s="63" t="s">
+      <c r="D107" s="44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="66">
+      <c r="B108" s="68"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="66">
+      <c r="B109" s="68"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="66.75" thickBot="1">
+      <c r="B110" s="68"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="66">
+      <c r="B111" s="68"/>
+      <c r="C111" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="D96" s="44" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" ht="66">
-      <c r="B97" s="62"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="42" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" ht="66">
-      <c r="B98" s="62"/>
-      <c r="C98" s="63"/>
-      <c r="D98" s="42" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" ht="49.5">
-      <c r="B99" s="62"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="42" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" ht="99">
-      <c r="B100" s="62"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="42" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" ht="33">
-      <c r="B101" s="62"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="42" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" ht="66">
-      <c r="B102" s="62"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="42" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" ht="50.25" thickBot="1">
-      <c r="B103" s="62"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="47" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" ht="49.5">
-      <c r="B104" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="C104" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="D104" s="46" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" ht="82.5">
-      <c r="B105" s="60"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="42" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" ht="83.25" thickBot="1">
-      <c r="B106" s="60"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="43" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" ht="82.5">
-      <c r="B107" s="60"/>
-      <c r="C107" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="D107" s="44" t="s">
+      <c r="D111" s="46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="49.5">
+      <c r="B112" s="68"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="49.5">
+      <c r="B113" s="68"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="42" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="2:4" ht="66">
-      <c r="B108" s="60"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="42" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" ht="66">
-      <c r="B109" s="60"/>
-      <c r="C109" s="63"/>
-      <c r="D109" s="42" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" ht="66.75" thickBot="1">
-      <c r="B110" s="60"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="47" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" ht="66">
-      <c r="B111" s="60"/>
-      <c r="C111" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="D111" s="46" t="s">
+    <row r="114" spans="2:4" ht="99">
+      <c r="B114" s="68"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="42" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="112" spans="2:4" ht="49.5">
-      <c r="B112" s="60"/>
-      <c r="C112" s="63"/>
-      <c r="D112" s="42" t="s">
+    <row r="115" spans="2:4" ht="33">
+      <c r="B115" s="68"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="42" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="49.5">
-      <c r="B113" s="60"/>
-      <c r="C113" s="63"/>
-      <c r="D113" s="42" t="s">
+    <row r="116" spans="2:4" ht="50.25" thickBot="1">
+      <c r="B116" s="69"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="43" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" ht="99">
-      <c r="B114" s="60"/>
-      <c r="C114" s="63"/>
-      <c r="D114" s="42" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" ht="33">
-      <c r="B115" s="60"/>
-      <c r="C115" s="63"/>
-      <c r="D115" s="42" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" ht="50.25" thickBot="1">
-      <c r="B116" s="61"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="43" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C37"/>
     <mergeCell ref="B34:B43"/>
     <mergeCell ref="B5:B33"/>
     <mergeCell ref="C107:C110"/>
@@ -8262,6 +8859,16 @@
     <mergeCell ref="C104:C106"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
